--- a/Hospitales Coahuila.xlsx
+++ b/Hospitales Coahuila.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38871\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sku59006\Documents\GitHub\Hackaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1881390-708A-4731-A37B-2F28B713DB00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>Hospital General de Allende</t>
   </si>
@@ -282,12 +291,40 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Centro de Salud con Hospital General Cepeda</t>
+  </si>
+  <si>
+    <t>Francisco I. Madero</t>
+  </si>
+  <si>
+    <t>Rural de 01 Núcleo Básico La Rosa</t>
+  </si>
+  <si>
+    <t>Carretera a Torreón Km. 45</t>
+  </si>
+  <si>
+    <t>Ejido La Rosa</t>
+  </si>
+  <si>
+    <t>Caravana General Cepeda</t>
+  </si>
+  <si>
+    <t>Porfirio Díaz</t>
+  </si>
+  <si>
+    <t>Unidad Móvil #37 General Cepeda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,8 +354,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,19 +637,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,6 +721,18 @@
       <c r="I2" t="s">
         <v>82</v>
       </c>
+      <c r="J2" s="1">
+        <v>28.353929000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>100.861065</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -703,6 +759,12 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
+      <c r="J3" s="2">
+        <v>28.309430800000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>100.38359370000001</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -729,6 +791,12 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
+      <c r="J4">
+        <v>27.790548999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-99.877476000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -755,6 +823,12 @@
       <c r="I5" t="s">
         <v>8</v>
       </c>
+      <c r="J5">
+        <v>28.421447000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-100.76808</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -781,6 +855,12 @@
       <c r="I6" t="s">
         <v>8</v>
       </c>
+      <c r="J6">
+        <v>28.421447000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-100.76808</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -807,6 +887,12 @@
       <c r="I7" t="s">
         <v>82</v>
       </c>
+      <c r="J7">
+        <v>28.692990999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-100.51708000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -833,6 +919,12 @@
       <c r="I8" t="s">
         <v>8</v>
       </c>
+      <c r="J8">
+        <v>28.710094000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-100.517988</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1042,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1068,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1090,8 +1182,14 @@
       <c r="I18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>29.323395000000001</v>
+      </c>
+      <c r="K18">
+        <v>-100.92488400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1116,8 +1214,14 @@
       <c r="I19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>29.300084999999999</v>
+      </c>
+      <c r="K19">
+        <v>-100.960998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1143,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1169,7 +1273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1195,7 +1299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1221,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1247,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1273,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1297,6 +1401,134 @@
       </c>
       <c r="I26" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>504</v>
+      </c>
+      <c r="G27">
+        <v>25950</v>
+      </c>
+      <c r="I27" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27">
+        <v>25.3769648</v>
+      </c>
+      <c r="K27">
+        <v>-101.47031010000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>25970</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>25.518726999999998</v>
+      </c>
+      <c r="K28">
+        <v>-101.38914200000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>504</v>
+      </c>
+      <c r="G29">
+        <v>25950</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>25.374203000000001</v>
+      </c>
+      <c r="K29">
+        <v>-101.472464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>504</v>
+      </c>
+      <c r="G30">
+        <v>25950</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>25.374203000000001</v>
+      </c>
+      <c r="K30">
+        <v>-101.472464</v>
       </c>
     </row>
   </sheetData>
